--- a/ww-ug/GAPP_RESULTS_WRITE_UP/povline_food_ent.xlsx
+++ b/ww-ug/GAPP_RESULTS_WRITE_UP/povline_food_ent.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="povline_food_ent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>spdomain</t>
   </si>
@@ -25,13 +25,34 @@
     <t>ent</t>
   </si>
   <si>
-    <t>food poverty line,flexible bundle/month</t>
-  </si>
-  <si>
-    <t>Entropy/month</t>
-  </si>
-  <si>
-    <t>%change</t>
+    <t>Central rural</t>
+  </si>
+  <si>
+    <t>Central urban</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>monthly_food_povertyline_non_entropy_adjusted</t>
+  </si>
+  <si>
+    <t>ent_monthlyfoodpovertyline</t>
+  </si>
+  <si>
+    <t>UBOS_monthlyfoodpovertyline</t>
+  </si>
+  <si>
+    <t>UBOS%change</t>
+  </si>
+  <si>
+    <t>Authors%change</t>
   </si>
 </sst>
 </file>
@@ -860,20 +881,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,129 +909,185 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>639.45000000000005</v>
+        <v>779.64</v>
       </c>
       <c r="C2">
-        <v>631.53</v>
-      </c>
-      <c r="E2">
+        <v>784.08</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <f>B2*30</f>
-        <v>19183.5</v>
-      </c>
-      <c r="F2">
+        <v>23389.200000000001</v>
+      </c>
+      <c r="G2">
         <f>C2*30</f>
-        <v>18945.899999999998</v>
-      </c>
-      <c r="G2">
-        <f>((F2-E2)/F2)*100</f>
-        <v>-1.2540971925324329</v>
+        <v>23522.400000000001</v>
+      </c>
+      <c r="H2">
+        <v>21258</v>
+      </c>
+      <c r="I2">
+        <f>((G2-H2)/G2)*100</f>
+        <v>9.6265687174778147</v>
+      </c>
+      <c r="J2">
+        <f>((G2-F2)/G2)*100</f>
+        <v>0.56626874808693306</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>832.35</v>
+        <v>714.96</v>
       </c>
       <c r="C3">
-        <v>731.25</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">B3*30</f>
-        <v>24970.5</v>
+        <v>736.47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="1">C3*30</f>
-        <v>21937.5</v>
+        <f t="shared" ref="F3:F6" si="0">B3*30</f>
+        <v>21448.800000000003</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="2">((F3-E3)/F3)*100</f>
-        <v>-13.825641025641024</v>
+        <f t="shared" ref="G3:G6" si="1">C3*30</f>
+        <v>22094.100000000002</v>
+      </c>
+      <c r="H3">
+        <v>21258</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">((G3-H3)/G3)*100</f>
+        <v>3.7842681982972928</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="3">((G3-F3)/G3)*100</f>
+        <v>2.9206892337773396</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>609.27</v>
+        <v>595.41</v>
       </c>
       <c r="C4">
-        <v>636.75</v>
-      </c>
-      <c r="E4">
+        <v>742.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>18278.099999999999</v>
-      </c>
-      <c r="F4">
+        <v>17862.3</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>19102.5</v>
-      </c>
-      <c r="G4">
-        <f>((F4-E4)/F4)*100</f>
-        <v>4.3156654888103727</v>
+        <v>22289.7</v>
+      </c>
+      <c r="H4">
+        <v>21258</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>4.6285952704612479</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>19.862986042880799</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>519.64</v>
+        <v>374.91</v>
       </c>
       <c r="C5">
-        <v>624.05999999999995</v>
-      </c>
-      <c r="E5">
+        <v>453.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>15589.199999999999</v>
-      </c>
-      <c r="F5">
+        <v>11247.300000000001</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>18721.8</v>
-      </c>
-      <c r="G5">
+        <v>13617</v>
+      </c>
+      <c r="H5">
+        <v>21258</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>16.732365477678432</v>
+        <v>-56.113681427627228</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>17.402511566424312</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>782.03</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="C6">
-        <v>705.57</v>
-      </c>
-      <c r="E6">
+        <v>821.13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>23460.899999999998</v>
-      </c>
-      <c r="F6">
+        <v>37384.200000000004</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>21167.100000000002</v>
-      </c>
-      <c r="G6">
+        <v>24633.9</v>
+      </c>
+      <c r="H6">
+        <v>21258</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>-10.836628541462909</v>
+        <v>13.704285557707067</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-51.759161155968002</v>
       </c>
     </row>
   </sheetData>
